--- a/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="283">
   <si>
     <t>Asignatura</t>
   </si>
@@ -545,9 +545,6 @@
     <t>Potencial eléctrico</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: las cargas eléctricas</t>
-  </si>
-  <si>
     <t>Actividades para aplicar los conocimientos sobre cargas eléctricas</t>
   </si>
   <si>
@@ -632,9 +629,6 @@
     <t>Actividad que permite evaluar los conceptos aprendidos sobre la electricidad</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: materiales conductores y materiales aislantes</t>
-  </si>
-  <si>
     <t>El circuito eléctrico</t>
   </si>
   <si>
@@ -725,9 +719,6 @@
     <t>Recurso M5A-03</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los circuitos eléctricos</t>
-  </si>
-  <si>
     <t>Actividad sobre los circuitos eléctricos</t>
   </si>
   <si>
@@ -839,9 +830,6 @@
     <t>Actividad sobre el electromagnetismo</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el electromagnetismo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: El electromagnetismo </t>
   </si>
   <si>
@@ -872,10 +860,19 @@
     <t>Evalúa tus conocimientos sobre el tema Electricidad y magnetismo</t>
   </si>
   <si>
-    <t>Banco de actividades: electricidad y magnetismo</t>
-  </si>
-  <si>
     <t>Motor que incluye preguntas de respuesta abierta del tema Electricidad y magnetismo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Materiales conductores y materiales aislantes</t>
+  </si>
+  <si>
+    <t>Calcula las variables de un circuito en paralelo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El electromagnetismo</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Electricidad y magnetismo</t>
   </si>
 </sst>
 </file>
@@ -1239,34 +1236,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,6 +1285,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,9 +1612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="B8:C8"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,94 +1642,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2041,7 +2038,7 @@
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H8" s="45">
         <v>6</v>
@@ -2050,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K8" s="47" t="s">
         <v>19</v>
@@ -2078,7 +2075,7 @@
         <v>154</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U8" s="50" t="s">
         <v>158</v>
@@ -2100,7 +2097,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="25"/>
       <c r="G9" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2109,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>20</v>
@@ -2157,11 +2154,11 @@
         <v>154</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
@@ -2170,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2196,7 +2193,7 @@
         <v>124</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>125</v>
@@ -2216,13 +2213,13 @@
         <v>154</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
@@ -2231,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2255,10 +2252,10 @@
         <v>154</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2275,13 +2272,13 @@
         <v>154</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
@@ -2290,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2314,7 +2311,7 @@
         <v>154</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>156</v>
@@ -2334,13 +2331,13 @@
         <v>154</v>
       </c>
       <c r="E13" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
@@ -2349,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2373,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>156</v>
@@ -2393,13 +2390,13 @@
         <v>154</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
@@ -2408,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2454,13 +2451,13 @@
         <v>154</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="G15" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
@@ -2469,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" s="62" t="s">
         <v>20</v>
@@ -2521,7 +2518,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
@@ -2530,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2558,7 +2555,7 @@
         <v>154</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>156</v>
@@ -2582,7 +2579,7 @@
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="44" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="H17" s="45">
         <v>15</v>
@@ -2591,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="47" t="s">
         <v>19</v>
@@ -2619,7 +2616,7 @@
         <v>154</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U17" s="50" t="s">
         <v>156</v>
@@ -2636,12 +2633,12 @@
         <v>148</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="25"/>
       <c r="G18" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
@@ -2650,7 +2647,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>19</v>
@@ -2674,7 +2671,7 @@
         <v>154</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U18" s="37" t="s">
         <v>156</v>
@@ -2691,12 +2688,12 @@
         <v>148</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2705,7 +2702,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2729,7 +2726,7 @@
         <v>154</v>
       </c>
       <c r="T19" s="67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U19" s="65" t="s">
         <v>156</v>
@@ -2746,14 +2743,14 @@
         <v>148</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20" s="21">
         <v>18</v>
@@ -2762,7 +2759,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K20" s="62" t="s">
         <v>19</v>
@@ -2803,14 +2800,14 @@
         <v>148</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H21" s="5">
         <v>19</v>
@@ -2819,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2845,7 +2842,7 @@
         <v>124</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>125</v>
@@ -2862,14 +2859,14 @@
         <v>148</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2878,7 +2875,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>20</v>
@@ -2904,7 +2901,7 @@
         <v>126</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>128</v>
@@ -2921,16 +2918,16 @@
         <v>148</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
@@ -2939,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2982,16 +2979,16 @@
         <v>148</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
@@ -3000,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3026,7 +3023,7 @@
         <v>124</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>125</v>
@@ -3043,16 +3040,16 @@
         <v>148</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
@@ -3061,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -3087,7 +3084,7 @@
         <v>154</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>158</v>
@@ -3104,16 +3101,16 @@
         <v>148</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H26" s="21">
         <v>24</v>
@@ -3122,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3148,7 +3145,7 @@
         <v>124</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>125</v>
@@ -3165,14 +3162,14 @@
         <v>148</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H27" s="45">
         <v>25</v>
@@ -3181,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K27" s="47" t="s">
         <v>19</v>
@@ -3207,7 +3204,7 @@
         <v>154</v>
       </c>
       <c r="T27" s="52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="U27" s="50" t="s">
         <v>158</v>
@@ -3224,12 +3221,12 @@
         <v>148</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="25"/>
       <c r="G28" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3238,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3251,7 +3248,7 @@
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P28" s="25" t="s">
         <v>19</v>
@@ -3260,16 +3257,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="U28" s="37" t="s">
         <v>239</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="T28" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="U28" s="37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3283,16 +3280,16 @@
         <v>148</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
@@ -3301,7 +3298,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3322,13 +3319,13 @@
         <v>153</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T29" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U29" s="65" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3342,14 +3339,14 @@
         <v>148</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3358,7 +3355,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>19</v>
@@ -3379,13 +3376,13 @@
         <v>153</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="69" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3399,14 +3396,14 @@
         <v>148</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3415,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>19</v>
@@ -3436,13 +3433,13 @@
         <v>153</v>
       </c>
       <c r="S31" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T31" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3456,14 +3453,14 @@
         <v>148</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3472,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>19</v>
@@ -3493,13 +3490,13 @@
         <v>153</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T32" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3513,14 +3510,14 @@
         <v>148</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -3529,7 +3526,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>19</v>
@@ -3550,13 +3547,13 @@
         <v>153</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,14 +3567,14 @@
         <v>148</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3586,7 +3583,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3607,13 +3604,13 @@
         <v>153</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3627,14 +3624,14 @@
         <v>148</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3643,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3664,13 +3661,13 @@
         <v>153</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3684,14 +3681,14 @@
         <v>148</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3700,7 +3697,7 @@
         <v>19</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>19</v>
@@ -3721,13 +3718,13 @@
         <v>153</v>
       </c>
       <c r="S36" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T36" s="39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U36" s="37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3741,14 +3738,14 @@
         <v>148</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="44" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H37" s="45">
         <v>35</v>
@@ -3757,7 +3754,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K37" s="47" t="s">
         <v>19</v>
@@ -3778,13 +3775,13 @@
         <v>153</v>
       </c>
       <c r="S37" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T37" s="52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U37" s="50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3803,7 +3800,7 @@
       <c r="E38" s="33"/>
       <c r="F38" s="25"/>
       <c r="G38" s="34" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H38" s="21">
         <v>36</v>
@@ -3812,7 +3809,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>19</v>
@@ -3838,7 +3835,7 @@
         <v>154</v>
       </c>
       <c r="T38" s="39" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U38" s="37" t="s">
         <v>156</v>
@@ -3860,7 +3857,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H39" s="21">
         <v>37</v>
@@ -3869,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
@@ -3895,7 +3892,7 @@
         <v>154</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="U39" s="10" t="s">
         <v>156</v>
@@ -3917,7 +3914,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H40" s="21">
         <v>38</v>
@@ -3926,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>19</v>
@@ -3949,13 +3946,13 @@
         <v>153</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3983,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -4028,7 +4025,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -4085,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K43" s="47" t="s">
         <v>20</v>
@@ -5124,6 +5121,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5138,12 +5141,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MIS DOCUMENTOS\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1236,16 +1236,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,24 +1303,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1612,9 +1612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,94 +1642,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="76" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="93" t="s">
+      <c r="T1" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="U1" s="76" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="83"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="92"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="77"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5117,16 +5117,10 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U42">
+  <autoFilter ref="A1:U43">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5141,6 +5135,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ES_CN_08_12_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="283">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1236,34 +1231,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,6 +1280,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1401,7 +1396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1612,9 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,8 +1627,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1642,94 +1637,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2056,9 +2051,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="49"/>
-      <c r="N8" s="49" t="s">
-        <v>52</v>
-      </c>
+      <c r="N8" s="49"/>
       <c r="O8" s="43" t="s">
         <v>141</v>
       </c>
@@ -2536,9 +2529,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
         <v>141</v>
       </c>
@@ -2597,9 +2588,7 @@
         <v>8</v>
       </c>
       <c r="M17" s="49"/>
-      <c r="N17" s="49" t="s">
-        <v>52</v>
-      </c>
+      <c r="N17" s="49"/>
       <c r="O17" s="43" t="s">
         <v>141</v>
       </c>
@@ -5121,6 +5110,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5135,12 +5130,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
